--- a/data/trans_bre/P1423-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -619,17 +635,27 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>8,86</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>114,36%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>178,37%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>221,31%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>83,42%</t>
         </is>
       </c>
     </row>
@@ -657,17 +683,27 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>5,39; 12,17</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>63,36; 197,87</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>112,41; 259,63</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>126,97; 359,13</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42,94; 144,27</t>
         </is>
       </c>
     </row>
@@ -699,17 +735,27 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>192,86%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>140,91%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>200,14%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>104,63%</t>
         </is>
       </c>
     </row>
@@ -737,17 +783,27 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>2,29; 7,18</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>89,26; 341,32</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>78,32; 234,9</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>124,75; 316,53</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48,07; 208,33</t>
         </is>
       </c>
     </row>
@@ -779,17 +835,27 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>59,17%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>38,79%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>64,04%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>37,82%</t>
         </is>
       </c>
     </row>
@@ -817,17 +883,27 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-0,87; 4,43</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>-22,76; 215,99</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>-39,52; 209,29</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>-34,86; 302,65</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-13,74; 122,66</t>
         </is>
       </c>
     </row>
@@ -859,17 +935,27 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,57</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>145,93%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>176,42%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>210,3%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>97,47%</t>
         </is>
       </c>
     </row>
@@ -897,17 +983,27 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>3,31; 7,18</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>94,2; 210,06</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>126,68; 245,44</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>151,84; 286,24</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>54,74; 150,11</t>
         </is>
       </c>
     </row>
@@ -920,11 +1016,11 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P1423-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,29</t>
+          <t>3,95; 8,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 15,15</t>
+          <t>9,65; 15,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 14,44</t>
+          <t>8,75; 14,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,39; 12,17</t>
+          <t>5,91; 12,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,36; 197,87</t>
+          <t>61,57; 192,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>112,41; 259,63</t>
+          <t>114,05; 271,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>126,97; 359,13</t>
+          <t>132,09; 343,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,94; 144,27</t>
+          <t>46,46; 136,11</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,88</t>
+          <t>2,37; 5,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,93</t>
+          <t>2,75; 5,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,32</t>
+          <t>4,43; 7,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,18</t>
+          <t>2,2; 7,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,26; 341,32</t>
+          <t>93,96; 339,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>78,32; 234,9</t>
+          <t>70,29; 230,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>124,75; 316,53</t>
+          <t>123,08; 303,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,07; 208,33</t>
+          <t>47,17; 207,51</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,91</t>
+          <t>-0,64; 4,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,5</t>
+          <t>-1,27; 3,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,25</t>
+          <t>-0,76; 3,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,43</t>
+          <t>-0,71; 4,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 215,99</t>
+          <t>-22,43; 204,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 209,29</t>
+          <t>-34,83; 205,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,86; 302,65</t>
+          <t>-35,77; 288,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 122,66</t>
+          <t>-12,06; 121,42</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,55</t>
+          <t>3,44; 5,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 8,69</t>
+          <t>5,96; 8,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 8,2</t>
+          <t>5,59; 8,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,18</t>
+          <t>3,43; 7,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,2; 210,06</t>
+          <t>96,3; 209,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>126,68; 245,44</t>
+          <t>126,09; 238,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>151,84; 286,24</t>
+          <t>149,54; 289,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,74; 150,11</t>
+          <t>58,43; 155,37</t>
         </is>
       </c>
     </row>
